--- a/Docs/ScrumBoard - Banking II.xlsx
+++ b/Docs/ScrumBoard - Banking II.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Work\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Work\Project\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D75939-1EC3-4EC2-BC4F-8A2598B9683E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD20E23D-7EEC-40E0-B5B6-17DFD821C85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>User Story</t>
   </si>
@@ -49,6 +49,45 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>2.1 Develop repositories,services,controllers for customer login
+ 2.2 Develop the angular components for customer login 
+2.3 Integrate Front end and back end</t>
+  </si>
+  <si>
+    <t>3.1 Develop repositories,services,controllers for fund transfer
+ 3.2 Develop the angular components for fund transfer
+ 3.3 Integrate Front end and back end</t>
+  </si>
+  <si>
+    <t>Addition of Few more things in FrontEnd, Dashboard, Routing, Redirection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Customer Login, Admin Login, Admin Approval[Sunil Kumar]
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ 2. Create Account[Aswani]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1 Develop repositories,services,controllers for customer login
+1.2 Develop the angular components for customer login
+1.3 Integrate Front end and back end </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. Fund Transfer[Harsha Patil]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ 4. Fund Transfer[Manikandan]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ 5. Add Beneficiary, Change Password, Forget Password[Nidhi Jha].</t>
   </si>
   <si>
     <t xml:space="preserve">1.1 Develop repositories,services,controllers for customer login
@@ -57,43 +96,7 @@
 </t>
   </si>
   <si>
-    <t>2.1 Develop repositories,services,controllers for customer login
- 2.2 Develop the angular components for customer login 
-2.3 Integrate Front end and back end</t>
-  </si>
-  <si>
-    <t>3.1 Develop repositories,services,controllers for fund transfer
- 3.2 Develop the angular components for fund transfer
- 3.3 Integrate Front end and back end</t>
-  </si>
-  <si>
-    <t>Addition of Few more things in FrontEnd, Dashboard, Routing, Redirection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Customer Login, Admin Login, Admin Approval[Sunil Kumar]
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 2. Create Account[Aswani]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1 Develop repositories,services,controllers for customer login
-1.2 Develop the angular components for customer login
-1.3 Integrate Front end and back end </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3. Fund Transfer[Harsha Patil]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 4. Fund Transfer[Manikandan]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 5. Add Beneficiary, Change Password, Forget Password[Nidhi Jha].</t>
+    <t xml:space="preserve"> Develop repositories,services,controllers for customer login</t>
   </si>
 </sst>
 </file>
@@ -117,13 +120,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFF8CBAD"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFB4C6E7"/>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -133,6 +129,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -173,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -210,17 +212,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -271,11 +262,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -283,36 +313,45 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,71 +683,90 @@
     <col min="6" max="6" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:6" ht="137.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" ht="121.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="7"/>
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="4" spans="1:6" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="132" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="144" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    <row r="6" spans="1:6" ht="112.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>9</v>
-      </c>
+      <c r="C6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>